--- a/Auto Birthday Wisher/data.xlsx
+++ b/Auto Birthday Wisher/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -40,31 +40,85 @@
     <t>Chinmoy Tripura</t>
   </si>
   <si>
+    <t>Machang Tripura</t>
+  </si>
+  <si>
+    <t>Rimi Tripura</t>
+  </si>
+  <si>
+    <t>Titu Nath</t>
+  </si>
+  <si>
+    <t>PKD Biduyt</t>
+  </si>
+  <si>
+    <t>Himel Chakma</t>
+  </si>
+  <si>
+    <t>Mehidy Hasssan</t>
+  </si>
+  <si>
+    <t>Adrija Tripura Kamala</t>
+  </si>
+  <si>
     <t>Prasanta Dewan</t>
   </si>
   <si>
-    <t>Machang Tripura</t>
-  </si>
-  <si>
-    <t>Rimi Tripura</t>
+    <t>Sejuti Chakma</t>
+  </si>
+  <si>
+    <t>Anik Ekka</t>
+  </si>
+  <si>
+    <t>Mouly Dewan</t>
+  </si>
+  <si>
+    <t>donieltripura121@gmail.com</t>
+  </si>
+  <si>
+    <t>dineshtripura55@gmail.com</t>
   </si>
   <si>
     <t>tripura1907121@stud.kuet.ac.bd</t>
   </si>
   <si>
-    <t>dineshtripura55@gmail.com</t>
-  </si>
-  <si>
-    <t>donieltripura121@gmail.com</t>
-  </si>
-  <si>
     <t>raninatripura34@gmail.com</t>
   </si>
   <si>
+    <t>nath1905087@stud.kuet.ac.bd</t>
+  </si>
+  <si>
+    <t>das1907118@stud.kuet.ac.bd</t>
+  </si>
+  <si>
+    <t>himelchakma55@gmail.com</t>
+  </si>
+  <si>
+    <t>hassan1903020@stud.kuet.ac.bd</t>
+  </si>
+  <si>
+    <t>tripuraadrija@gmail.com</t>
+  </si>
+  <si>
+    <t>prasantadewan12@gmail.com</t>
+  </si>
+  <si>
+    <t>sejutichakma2002@gmail.com</t>
+  </si>
+  <si>
+    <t>anikekka11@gmail.com</t>
+  </si>
+  <si>
+    <t>dewan1507121@stud.kuet.ac.bd</t>
+  </si>
+  <si>
     <t>2001, 2024</t>
   </si>
   <si>
     <t>May your special day be filled with joy, laughter, and wonderful memories! Here's to another amazing year ahead filled with happiness, success, and all the things that bring you joy. Enjoy every moment and make the most of your birthday celebration! 🎂</t>
+  </si>
+  <si>
+    <t>May your special day be filled with joy, laughter, and wonderful memories di! Here's to another amazing year ahead filled with happiness, success, and all the things that bring you joy. Enjoy every moment and make the most of your birthday celebration! 🎂</t>
   </si>
 </sst>
 </file>
@@ -426,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,13 +511,13 @@
         <v>44344</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>2001</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -474,13 +528,13 @@
         <v>35578</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1997</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -491,13 +545,13 @@
         <v>40226</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>2001</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -505,16 +559,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>37033</v>
+        <v>37015</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>2001</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -522,16 +576,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>37015</v>
+        <v>37546</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2002</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -539,16 +593,152 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>37546</v>
+        <v>36996</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>36791</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>36775</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>36962</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="B11" s="2">
+        <v>37228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>2001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>37033</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>37599</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
         <v>2002</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37331</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>2002</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>35559</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
